--- a/output/231030 - Candidatos.xlsx
+++ b/output/231030 - Candidatos.xlsx
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4494,10 +4494,10 @@
         </is>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -10437,10 +10437,10 @@
         </is>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10605,10 +10605,10 @@
         </is>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -12096,10 +12096,10 @@
         </is>
       </c>
       <c r="D559">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -13440,10 +13440,10 @@
         </is>
       </c>
       <c r="D623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -14280,10 +14280,10 @@
         </is>
       </c>
       <c r="D663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -15435,10 +15435,10 @@
         </is>
       </c>
       <c r="D718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -20412,10 +20412,10 @@
         </is>
       </c>
       <c r="D955">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E955">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956">
@@ -20916,10 +20916,10 @@
         </is>
       </c>
       <c r="D979">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E979">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -23940,10 +23940,10 @@
         </is>
       </c>
       <c r="D1123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124">
@@ -24108,10 +24108,10 @@
         </is>
       </c>
       <c r="D1131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1131">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132">
@@ -28476,10 +28476,10 @@
         </is>
       </c>
       <c r="D1339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -29316,10 +29316,10 @@
         </is>
       </c>
       <c r="D1379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380">
@@ -29820,10 +29820,10 @@
         </is>
       </c>
       <c r="D1403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404">
@@ -31185,10 +31185,10 @@
         </is>
       </c>
       <c r="D1468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1468">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -32025,10 +32025,10 @@
         </is>
       </c>
       <c r="D1508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1508">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509">
@@ -33327,10 +33327,10 @@
         </is>
       </c>
       <c r="D1570">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1570">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571">
@@ -35175,10 +35175,10 @@
         </is>
       </c>
       <c r="D1658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1659">
@@ -36015,10 +36015,10 @@
         </is>
       </c>
       <c r="D1698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699">
@@ -36183,10 +36183,10 @@
         </is>
       </c>
       <c r="D1706">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1706">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707">
@@ -36519,10 +36519,10 @@
         </is>
       </c>
       <c r="D1722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1722">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723">
@@ -37359,10 +37359,10 @@
         </is>
       </c>
       <c r="D1762">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763">
@@ -37863,10 +37863,10 @@
         </is>
       </c>
       <c r="D1786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787">
@@ -38031,10 +38031,10 @@
         </is>
       </c>
       <c r="D1794">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795">
@@ -40383,10 +40383,10 @@
         </is>
       </c>
       <c r="D1906">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1906">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1907">
@@ -41055,10 +41055,10 @@
         </is>
       </c>
       <c r="D1938">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1939">
@@ -41223,10 +41223,10 @@
         </is>
       </c>
       <c r="D1946">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1947">
@@ -48468,10 +48468,10 @@
         </is>
       </c>
       <c r="D2291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2291">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2292">
@@ -48972,10 +48972,10 @@
         </is>
       </c>
       <c r="D2315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2316">
@@ -48996,7 +48996,7 @@
         <v>1</v>
       </c>
       <c r="E2316">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2317">
@@ -50127,10 +50127,10 @@
         </is>
       </c>
       <c r="D2370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371">
@@ -50295,10 +50295,10 @@
         </is>
       </c>
       <c r="D2378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2378">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2379">
@@ -50799,10 +50799,10 @@
         </is>
       </c>
       <c r="D2402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2403">
@@ -53151,10 +53151,10 @@
         </is>
       </c>
       <c r="D2514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2515">
@@ -56028,10 +56028,10 @@
         </is>
       </c>
       <c r="D2651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652">
